--- a/Table.xlsx
+++ b/Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>R2 Train</t>
   </si>
@@ -22,28 +22,25 @@
     <t>R2 Test</t>
   </si>
   <si>
-    <t>R2 CV</t>
+    <t>CV</t>
   </si>
   <si>
     <t>Linear Regression</t>
   </si>
   <si>
-    <t>Polynomial Regression (degree: 1)</t>
-  </si>
-  <si>
-    <t>Ridge Regression (alpha: 1.37)</t>
-  </si>
-  <si>
-    <t>Lasso Regression (alpha: 0)</t>
-  </si>
-  <si>
-    <t>KNN (n: 1)</t>
-  </si>
-  <si>
-    <t>Non Linear Svm (c: 10000)</t>
-  </si>
-  <si>
-    <t>Linear SVM (c: 5)</t>
+    <t>Polynomial Regression (degree: 2)</t>
+  </si>
+  <si>
+    <t>Ridge Regression (alpha: 90)</t>
+  </si>
+  <si>
+    <t>Lasso Regression (alpha: 5)</t>
+  </si>
+  <si>
+    <t>Linear SVM (c: 0.06)</t>
+  </si>
+  <si>
+    <t>Non Linear Svm (c: 5000)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +420,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8622897510382952</v>
+        <v>0.8969478322104724</v>
       </c>
       <c r="C2">
-        <v>0.8896092888940235</v>
+        <v>0.7871000500553734</v>
       </c>
       <c r="D2">
-        <v>0.8641399041962121</v>
+        <v>0.8951527258201025</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +434,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8920660929409385</v>
+        <v>0.923859992863758</v>
       </c>
       <c r="C3">
-        <v>0.904752423958178</v>
+        <v>0.8111852638523563</v>
       </c>
       <c r="D3">
-        <v>0.8887804925359737</v>
+        <v>0.91660947096894</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.862063615440508</v>
+        <v>0.8966922302130962</v>
       </c>
       <c r="C4">
-        <v>0.8899703103623747</v>
+        <v>0.7873473305546449</v>
       </c>
       <c r="D4">
-        <v>0.8637501230071969</v>
+        <v>0.895421611946742</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8668116838923984</v>
+        <v>0.8969444050909176</v>
       </c>
       <c r="C5">
-        <v>0.8747065325648725</v>
+        <v>0.7871074761513857</v>
       </c>
       <c r="D5">
-        <v>0.8673936182831609</v>
+        <v>0.8953664025474385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +476,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.9540229885057471</v>
+        <v>0.05839080459770115</v>
       </c>
       <c r="C6">
-        <v>0.03724137931034482</v>
+        <v>0.02896551724137931</v>
       </c>
       <c r="D6">
-        <v>0.5125131806059098</v>
+        <v>0.7132341661341082</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,27 +490,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.608735632183908</v>
+        <v>0.5420689655172414</v>
       </c>
       <c r="C7">
-        <v>0.03862068965517242</v>
+        <v>0.05103448275862069</v>
       </c>
       <c r="D7">
-        <v>0.8197058164255286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.08735632183908046</v>
-      </c>
-      <c r="C8">
-        <v>0.02620689655172414</v>
-      </c>
-      <c r="D8">
-        <v>0.6965658528753668</v>
+        <v>0.8811807040262956</v>
       </c>
     </row>
   </sheetData>
